--- a/memo.xlsx
+++ b/memo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12945" activeTab="3"/>
+    <workbookView windowHeight="18420"/>
   </bookViews>
   <sheets>
     <sheet name="チュートリアルメモ" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210">
   <si>
     <t>The Rust Programming Language 日本語版</t>
   </si>
@@ -220,15 +220,66 @@
     <t>9.3. panic!すべきかするまいか</t>
   </si>
   <si>
+    <t>数当てゲームをエラー処理機能を使って改善するということが記述されているが、全くなっていない。</t>
+  </si>
+  <si>
+    <t>どこがどう改良されたのか説明できていない。</t>
+  </si>
+  <si>
     <t>10. ジェネリック型、トレイト、ライフタイム</t>
   </si>
   <si>
     <t>10.1. ジェネリックなデータ型</t>
   </si>
   <si>
+    <t>最悪な構成。任意の型に対して使用できるlargestという関数を定義しようとしているがビルドエラー(少なくとも大小比較演算子が使用可能な型でなければならないが、本当に任意の型に対して定義しようとしている)の状態でペンディングし、別の話に変わってしまう。</t>
+  </si>
+  <si>
+    <t>まだろっこしい。Rustを使おうと思っている人間の中にジェネリクスについて知らない者はいないのではないか?</t>
+  </si>
+  <si>
     <t>10.2. トレイト：共通の振る舞いを定義する</t>
   </si>
   <si>
+    <t>トレイトはJavaやC#のinterfaceに相当するもの。</t>
+  </si>
+  <si>
+    <t>ソースコードの記述としては、構造体定義の記述の後に、その構造体に対しトレイト実装を記述する。</t>
+  </si>
+  <si>
+    <t>構造体定義とトレイトの実装が分かれているのはちょっとわかりづらいと思ったが、構造体定義とトレイトの実装は同じクレートにないといけないというルールなので、特に問題はないと思われる。</t>
+  </si>
+  <si>
+    <t>1つの構造体に対し、複数のトレイトを実装する場合、トレイト間で同じ関数名があったりした場合を考えるとRustのやり方の方がよいのかも。</t>
+  </si>
+  <si>
+    <t>トレイト実装を構造体定義と別に記述するのは、以下のようなことを可能にするためらしい。</t>
+  </si>
+  <si>
+    <t>(1) 標準あるいは外部ライブラリの構造体に、独自トレイトの実装をしたい。</t>
+  </si>
+  <si>
+    <t>例えば、構造体の内容を端的に標準出力に出力するpp()というメソッドを標準、外部ライブラリ内の構造体に追加するということができる。</t>
+  </si>
+  <si>
+    <t>ただし、JavaやC#の場合、以下のような実装をすることと変わらないので、JavaやC#とは異なる見方をする理由にはならない…</t>
+  </si>
+  <si>
+    <t>class PpUtil {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  static void pp(Abc val) {...}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  static void pp(Def val) {...}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  static void pp(Ghi val) {...}</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
     <t>10.3. ライフタイムで参照を検証する</t>
   </si>
   <si>
@@ -439,6 +490,9 @@
     <t>バイナリクレートとライブラリクレートの総称。</t>
   </si>
   <si>
+    <t>VisualStudioでいえばプロジェクトに相当するものらしい。つまり1つのexeファイル、dllファイルなどを成果物とするものなのだろうか?</t>
+  </si>
+  <si>
     <t>バイナリクレート</t>
   </si>
   <si>
@@ -446,6 +500,9 @@
   </si>
   <si>
     <t>パッケージのsrc/main.rsは、バイナリクレートで、名前はパッケージと同じ。</t>
+  </si>
+  <si>
+    <t>名前”って何?</t>
   </si>
   <si>
     <t>ライブラリクレート</t>
@@ -597,12 +654,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,9 +674,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,7 +690,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,7 +704,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -664,10 +735,62 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -679,11 +802,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -700,66 +823,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -770,6 +833,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -782,18 +989,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -801,156 +1014,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,6 +1024,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -988,6 +1062,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -999,21 +1091,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1033,31 +1110,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1069,153 +1132,156 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1534,15 +1600,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="4.62962962962963" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="4.625" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="4.62962962962963" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1675,198 +1741,198 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" collapsed="1" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" outlineLevel="1" spans="2:2">
+    <row r="28" hidden="1" outlineLevel="1" spans="2:2">
       <c r="B28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" outlineLevel="2" spans="3:3">
+    <row r="29" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" outlineLevel="2" spans="3:3">
+    <row r="30" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" outlineLevel="2" spans="3:3">
+    <row r="31" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" outlineLevel="2" spans="3:3">
+    <row r="32" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" outlineLevel="2" spans="3:3">
+    <row r="33" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" outlineLevel="2" spans="3:3">
+    <row r="34" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" outlineLevel="2" spans="3:3">
+    <row r="35" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" outlineLevel="2" spans="3:3">
+    <row r="36" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" outlineLevel="2" spans="3:3">
+    <row r="37" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" outlineLevel="2" spans="3:3">
+    <row r="38" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" outlineLevel="2" spans="3:3">
+    <row r="39" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" outlineLevel="2" spans="3:3">
+    <row r="40" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C40" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" outlineLevel="1" spans="2:2">
+    <row r="41" hidden="1" outlineLevel="1" spans="2:2">
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" outlineLevel="2" spans="3:3">
+    <row r="42" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C42" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="43" outlineLevel="2" spans="3:3">
+    <row r="43" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C43" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="44" outlineLevel="1" spans="2:2">
+    <row r="44" hidden="1" outlineLevel="1" spans="2:2">
       <c r="B44" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" outlineLevel="1" spans="2:2">
+    <row r="45" hidden="1" outlineLevel="1" spans="2:2">
       <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" outlineLevel="2" spans="3:3">
+    <row r="46" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C46" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="47" outlineLevel="2" spans="3:3">
+    <row r="47" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C47" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48" outlineLevel="2" spans="3:3">
+    <row r="48" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C48" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="49" outlineLevel="2" spans="3:3">
+    <row r="49" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C49" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="50" outlineLevel="2" spans="3:3">
+    <row r="50" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C50" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="51" outlineLevel="2" spans="3:3">
+    <row r="51" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C51" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" outlineLevel="2" spans="3:3">
+    <row r="52" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C52" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" outlineLevel="2" spans="3:3">
+    <row r="53" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C53" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" outlineLevel="2" spans="3:3">
+    <row r="54" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C54" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" outlineLevel="2"/>
-    <row r="56" outlineLevel="2" spans="3:3">
+    <row r="55" hidden="1" outlineLevel="2"/>
+    <row r="56" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C56" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57" outlineLevel="2" spans="3:3">
+    <row r="57" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C57" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58" outlineLevel="1" spans="2:2">
+    <row r="58" hidden="1" outlineLevel="1" spans="2:2">
       <c r="B58" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" outlineLevel="1" spans="2:2">
+    <row r="59" hidden="1" outlineLevel="1" spans="2:2">
       <c r="B59" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" collapsed="1" spans="1:1">
       <c r="A60" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61" outlineLevel="1" spans="2:2">
+    <row r="61" hidden="1" outlineLevel="1" spans="2:2">
       <c r="B61" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62" outlineLevel="2" spans="3:3">
+    <row r="62" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C62" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63" outlineLevel="2" spans="3:3">
+    <row r="63" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C63" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64" outlineLevel="2" spans="3:3">
+    <row r="64" hidden="1" outlineLevel="2" spans="3:3">
       <c r="C64" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="65" outlineLevel="1" spans="2:2">
+    <row r="65" hidden="1" outlineLevel="1" spans="2:2">
       <c r="B65" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="66" outlineLevel="1" spans="2:2">
+    <row r="66" hidden="1" outlineLevel="1" spans="2:2">
       <c r="B66" s="1" t="s">
         <v>62</v>
       </c>
@@ -1891,324 +1957,411 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" collapsed="1" spans="1:1">
-      <c r="A71" s="1" t="s">
+    <row r="71" hidden="1" outlineLevel="1" spans="3:3">
+      <c r="C71" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B72" s="1" t="s">
+    <row r="72" hidden="1" outlineLevel="1" spans="3:3">
+      <c r="C72" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B73" s="1" t="s">
+    <row r="73" spans="1:1">
+      <c r="A73" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74" hidden="1" outlineLevel="1" spans="2:2">
+    <row r="74" outlineLevel="1" spans="2:2">
       <c r="B74" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" collapsed="1" spans="1:1">
-      <c r="A75" s="1" t="s">
+    <row r="75" outlineLevel="1" spans="3:3">
+      <c r="C75" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B76" s="1" t="s">
+    <row r="76" outlineLevel="1" spans="3:3">
+      <c r="C76" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B77" s="1" t="s">
+    <row r="77" outlineLevel="1"/>
+    <row r="78" outlineLevel="1" spans="2:2">
+      <c r="B78" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="78" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B78" s="1" t="s">
+    <row r="79" outlineLevel="1" spans="3:3">
+      <c r="C79" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" collapsed="1" spans="1:1">
-      <c r="A79" s="1" t="s">
+    <row r="80" outlineLevel="1" spans="3:3">
+      <c r="C80" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="80" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B80" s="1" t="s">
+    <row r="81" outlineLevel="1" spans="3:3">
+      <c r="C81" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="81" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B81" s="1" t="s">
+    <row r="82" outlineLevel="1" spans="3:3">
+      <c r="C82" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="82" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B82" s="1" t="s">
+    <row r="83" outlineLevel="1"/>
+    <row r="84" outlineLevel="1" spans="3:3">
+      <c r="C84" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="83" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B83" s="1" t="s">
+    <row r="85" outlineLevel="1" spans="3:3">
+      <c r="C85" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B84" s="1" t="s">
+    <row r="86" outlineLevel="1" spans="4:4">
+      <c r="D86" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B85" s="1" t="s">
+    <row r="87" outlineLevel="1" spans="4:4">
+      <c r="D87" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="86" collapsed="1" spans="1:1">
-      <c r="A86" s="1" t="s">
+    <row r="88" outlineLevel="1" spans="4:4">
+      <c r="D88" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="87" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B87" s="1" t="s">
+    <row r="89" outlineLevel="1" spans="4:4">
+      <c r="D89" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="88" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B88" s="1" t="s">
+    <row r="90" outlineLevel="1" spans="4:4">
+      <c r="D90" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="89" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B89" s="1" t="s">
+    <row r="91" outlineLevel="1" spans="4:4">
+      <c r="D91" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="90" hidden="1" outlineLevel="1" spans="2:2">
-      <c r="B90" s="1" t="s">
+    <row r="92" outlineLevel="1" spans="4:4">
+      <c r="D92" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="91" collapsed="1" spans="1:1">
-      <c r="A91" s="1" t="s">
+    <row r="93" outlineLevel="1" spans="2:2">
+      <c r="B93" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="92" hidden="1" outlineLevel="1" spans="1:1">
-      <c r="A92" s="1" t="s">
+    <row r="94" collapsed="1" spans="1:1">
+      <c r="A94" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="93" hidden="1" outlineLevel="1" spans="1:1">
-      <c r="A93" s="1" t="s">
+    <row r="95" hidden="1" outlineLevel="1" spans="2:2">
+      <c r="B95" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="94" hidden="1" outlineLevel="1" spans="1:1">
-      <c r="A94" s="1" t="s">
+    <row r="96" hidden="1" outlineLevel="1" spans="2:2">
+      <c r="B96" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="95" hidden="1" outlineLevel="1" spans="1:1">
-      <c r="A95" s="1" t="s">
+    <row r="97" hidden="1" outlineLevel="1" spans="2:2">
+      <c r="B97" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="96" hidden="1" outlineLevel="1" spans="1:1">
-      <c r="A96" s="1" t="s">
+    <row r="98" collapsed="1" spans="1:1">
+      <c r="A98" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="97" collapsed="1" spans="1:1">
-      <c r="A97" s="1" t="s">
+    <row r="99" hidden="1" outlineLevel="1" spans="2:2">
+      <c r="B99" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="98" hidden="1" outlineLevel="1" spans="1:1">
-      <c r="A98" s="1" t="s">
+    <row r="100" hidden="1" outlineLevel="1" spans="2:2">
+      <c r="B100" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="99" hidden="1" outlineLevel="1" spans="1:1">
-      <c r="A99" s="1" t="s">
+    <row r="101" hidden="1" outlineLevel="1" spans="2:2">
+      <c r="B101" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="100" hidden="1" outlineLevel="1" spans="1:1">
-      <c r="A100" s="1" t="s">
+    <row r="102" hidden="1" outlineLevel="1" spans="2:2">
+      <c r="B102" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="101" hidden="1" outlineLevel="1" spans="1:1">
-      <c r="A101" s="1" t="s">
+    <row r="103" hidden="1" outlineLevel="1" spans="2:2">
+      <c r="B103" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="102" hidden="1" outlineLevel="1" spans="1:1">
-      <c r="A102" s="1" t="s">
+    <row r="104" hidden="1" outlineLevel="1" spans="2:2">
+      <c r="B104" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="103" hidden="1" outlineLevel="1" spans="1:1">
-      <c r="A103" s="1" t="s">
+    <row r="105" collapsed="1" spans="1:1">
+      <c r="A105" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="104" collapsed="1" spans="1:1">
-      <c r="A104" s="1" t="s">
+    <row r="106" hidden="1" outlineLevel="1" spans="2:2">
+      <c r="B106" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="105" hidden="1" outlineLevel="1" spans="1:1">
-      <c r="A105" s="1" t="s">
+    <row r="107" hidden="1" outlineLevel="1" spans="2:2">
+      <c r="B107" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="106" hidden="1" outlineLevel="1" spans="1:1">
-      <c r="A106" s="1" t="s">
+    <row r="108" hidden="1" outlineLevel="1" spans="2:2">
+      <c r="B108" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="107" hidden="1" outlineLevel="1" spans="1:1">
-      <c r="A107" s="1" t="s">
+    <row r="109" hidden="1" outlineLevel="1" spans="2:2">
+      <c r="B109" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="108" hidden="1" outlineLevel="1" spans="1:1">
-      <c r="A108" s="1" t="s">
+    <row r="110" collapsed="1" spans="1:1">
+      <c r="A110" s="1" t="s">
         <v>104</v>
-      </c>
-    </row>
-    <row r="109" collapsed="1" spans="1:1">
-      <c r="A109" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="110" hidden="1" outlineLevel="1" spans="1:1">
-      <c r="A110" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="111" hidden="1" outlineLevel="1" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="112" hidden="1" outlineLevel="1" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="113" collapsed="1" spans="1:1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" hidden="1" outlineLevel="1" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="114" hidden="1" outlineLevel="1" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="115" hidden="1" outlineLevel="1" spans="1:1">
       <c r="A115" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" collapsed="1" spans="1:1">
+      <c r="A116" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="117" hidden="1" outlineLevel="1" spans="1:1">
+      <c r="A117" s="1" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="116" hidden="1" outlineLevel="1" spans="1:1">
-      <c r="A116" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="117" collapsed="1" spans="1:1">
-      <c r="A117" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="118" hidden="1" outlineLevel="1" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" hidden="1" outlineLevel="1" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" hidden="1" outlineLevel="1" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="121" hidden="1" outlineLevel="1" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="122" hidden="1" outlineLevel="1" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="123" collapsed="1" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="124" hidden="1" outlineLevel="1" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="125" hidden="1" outlineLevel="1" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="126" hidden="1" outlineLevel="1" spans="1:1">
       <c r="A126" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127" hidden="1" outlineLevel="1" spans="1:1">
+      <c r="A127" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="128" collapsed="1" spans="1:1">
+      <c r="A128" s="1" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="127" collapsed="1" spans="1:1">
-      <c r="A127" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="128" hidden="1" outlineLevel="1" spans="1:1">
-      <c r="A128" s="1" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="129" hidden="1" outlineLevel="1" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="130" hidden="1" outlineLevel="1" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131" hidden="1" outlineLevel="1" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="132" hidden="1" outlineLevel="1" spans="1:1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="132" collapsed="1" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="133" hidden="1" outlineLevel="1" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="134" hidden="1" outlineLevel="1" spans="1:1">
       <c r="A134" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="135" hidden="1" outlineLevel="1" spans="1:1">
+      <c r="A135" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="136" collapsed="1" spans="1:1">
+      <c r="A136" s="1" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="137" hidden="1" outlineLevel="1" spans="1:1">
+      <c r="A137" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="138" hidden="1" outlineLevel="1" spans="1:1">
+      <c r="A138" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="139" hidden="1" outlineLevel="1" spans="1:1">
+      <c r="A139" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="140" hidden="1" outlineLevel="1" spans="1:1">
+      <c r="A140" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="141" hidden="1" outlineLevel="1" spans="1:1">
+      <c r="A141" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="142" collapsed="1" spans="1:1">
+      <c r="A142" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="143" hidden="1" outlineLevel="1" spans="1:1">
+      <c r="A143" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="144" hidden="1" outlineLevel="1" spans="1:1">
+      <c r="A144" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="145" hidden="1" outlineLevel="1" spans="1:1">
+      <c r="A145" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146" collapsed="1" spans="1:1">
+      <c r="A146" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="147" hidden="1" outlineLevel="1" spans="1:1">
+      <c r="A147" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="148" hidden="1" outlineLevel="1" spans="1:1">
+      <c r="A148" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="149" hidden="1" outlineLevel="1" spans="1:1">
+      <c r="A149" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="150" hidden="1" outlineLevel="1" spans="1:1">
+      <c r="A150" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="151" hidden="1" outlineLevel="1" spans="1:1">
+      <c r="A151" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="152" hidden="1" outlineLevel="1" spans="1:1">
+      <c r="A152" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="153" hidden="1" outlineLevel="1" spans="1:1">
+      <c r="A153" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2220,230 +2373,241 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:A47"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="18.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="16384" width="8.89166666666667" style="1"/>
+    <col min="1" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="1" t="s">
-        <v>141</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="1" t="s">
-        <v>144</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1" t="s">
-        <v>147</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="1" t="s">
-        <v>151</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="1" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>154</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>159</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>161</v>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1" t="s">
-        <v>167</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1" t="s">
-        <v>171</v>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2461,19 +2625,19 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2483,12 +2647,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2502,23 +2666,23 @@
   <sheetPr/>
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -2528,27 +2692,27 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="1" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:1">
@@ -2558,42 +2722,42 @@
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="1" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
